--- a/municipal/სოციალური სტატისტიკა/პენსიის მიმღებები/მცხეთა-მთიანეთი/მცხეთა.xlsx
+++ b/municipal/სოციალური სტატისტიკა/პენსიის მიმღებები/მცხეთა-მთიანეთი/მცხეთა.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატ\პენსიის მიმღებები\მცხეთა-მთიანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\სოციალური სტატისტიკა\პენსიის მიმღებები\მცხეთა-მთიანეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -617,25 +617,25 @@
         <v>7240</v>
       </c>
       <c r="E4" s="7">
-        <v>6020</v>
+        <v>7293</v>
       </c>
       <c r="F4" s="7">
-        <v>6062</v>
+        <v>7384</v>
       </c>
       <c r="G4" s="8">
-        <v>6164</v>
+        <v>7532</v>
       </c>
       <c r="H4" s="8">
-        <v>6242</v>
+        <v>7652</v>
       </c>
       <c r="I4" s="8">
-        <v>6363</v>
+        <v>7801</v>
       </c>
       <c r="J4" s="8">
-        <v>6600</v>
+        <v>8086</v>
       </c>
       <c r="K4" s="8">
-        <v>6669</v>
+        <v>8158</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
